--- a/仕様書/キャラクター仕様書.xlsx
+++ b/仕様書/キャラクター仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="キー連動" sheetId="1" r:id="rId1"/>
@@ -405,6 +405,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -416,13 +419,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -431,7 +434,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="304799"/>
+          <a:off x="3524250" y="323849"/>
           <a:ext cx="2505075" cy="3057525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -587,13 +590,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -602,7 +605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="3562349"/>
+          <a:off x="876300" y="3543299"/>
           <a:ext cx="2438400" cy="3381375"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -642,15 +645,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>251018</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113909</xdr:rowOff>
+      <xdr:colOff>451043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -673,7 +676,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="257174"/>
+          <a:off x="914400" y="495299"/>
           <a:ext cx="2279843" cy="1914135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -729,16 +732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>682428</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158553</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -761,7 +764,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266825" y="4648200"/>
+          <a:off x="1428750" y="4438650"/>
           <a:ext cx="1473003" cy="2219324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -774,15 +777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>500799</xdr:colOff>
+      <xdr:colOff>396024</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,7 +808,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371976" y="1085850"/>
+          <a:off x="4267201" y="1114425"/>
           <a:ext cx="929423" cy="2219324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -818,13 +821,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>155363</xdr:rowOff>
     </xdr:to>
@@ -849,7 +852,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="295275"/>
+          <a:off x="6353175" y="295275"/>
           <a:ext cx="5667375" cy="3803438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,15 +865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150416</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -879,7 +882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="1552575"/>
+          <a:off x="10077450" y="1619250"/>
           <a:ext cx="504825" cy="483791"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -928,15 +931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>17066</xdr:rowOff>
+      <xdr:rowOff>121841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -945,7 +948,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10429875" y="1076325"/>
+          <a:off x="10534650" y="1181100"/>
           <a:ext cx="504825" cy="483791"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -994,15 +997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83741</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1011,7 +1014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10534650" y="2171700"/>
+          <a:off x="10525125" y="2066925"/>
           <a:ext cx="504825" cy="483791"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1060,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>93266</xdr:rowOff>
+      <xdr:rowOff>45641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1077,7 +1080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11106150" y="1666875"/>
+          <a:off x="10991850" y="1619250"/>
           <a:ext cx="504825" cy="483791"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3413,7 +3416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3455,7 +3458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3490,7 +3493,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3701,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3734,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
